--- a/Datasets/data_delantero_Leonardo Fabio Castro Loaiza_2022-11-10.xlsx
+++ b/Datasets/data_delantero_Leonardo Fabio Castro Loaiza_2022-11-10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Documents\RESPALDO\Trabajos\FC Juarez\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8056925-7219-48A8-9869-F9B9A63AB77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ACA834-A77A-4B8B-BF4D-6446C119D9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>L. Castro</t>
   </si>
   <si>
-    <t>Frecuencia goles</t>
+    <t>Frecuencia goles por minuto jugado</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,8 +550,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="3">
-        <f>(90*D2)/C2</f>
-        <v>0.49208633093525178</v>
+        <v>0.49</v>
       </c>
       <c r="F2">
         <v>12.14</v>
